--- a/documentation/listing-import-captures-ecrans-chronoHB.xlsx
+++ b/documentation/listing-import-captures-ecrans-chronoHB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olikin\Documents\GitHub\cross-donnnes-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olikin\Documents\GitHub\chronoHB\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3711BF-2A64-48F0-B31D-DD71B26ACC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A29685-3D13-4F75-AAC4-4EE29E27D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>Nom</t>
   </si>
@@ -226,9 +226,6 @@
   <si>
     <t>Casper</t>
   </si>
-  <si>
-    <t>9 km</t>
-  </si>
 </sst>
 </file>
 
@@ -401,7 +398,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1667,7 +1664,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>35</v>
